--- a/Other/Bishop_ALotSmarter_Purchase Request.xlsx
+++ b/Other/Bishop_ALotSmarter_Purchase Request.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaleb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaleb\repos\smart-handicap-sign\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68953185-405B-4F06-B3E3-EBC649F66EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C208B-2CAB-46D0-87E2-8D75F15767E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Info" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Team Name</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t xml:space="preserve">Winado 12V Ride on Car, Licensed Mercedes Benz AMG GTR Battery Powered Electric Vehicle, w/Parent Remote, Wider Seat, LED Lights, Openable Doors, MP3 Player, Smooth Start, 3 Speeds - Black </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Basics-microSDXC-Memory-Adapter/dp/B08TJRVWV1?crid=XV5XI4Y7Q4K1&amp;dib=eyJ2IjoiMSJ9.6AbWHkR_OS00jFOLQugll-P109T8q5ZR-_p8i9T7u0QTNIxogALTN_2briB8F93BskSBCVCCm6c8_j8PQ_MxAT6VTuPtC3fTnwyyYTIOofuTso-m2ziIqdPAsZn_C4GBfljdqzSXalObhAam-vTdn4dKu7JZZhtbSz3ZBVdN2_EoEuFjjZf7VmI4eR0egzib_xNEUgM51IDVk9THJP89U2swtgLxUgDX_FJG7RbqkTc._GPu4QC413MsQtebTaeMvHP8Rw34EU0cYhvYI1iP5S4&amp;dib_tag=se&amp;keywords=sd+card&amp;qid=1730329011&amp;sprefix=sd+c%2Caps%2C716&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Basics Micro SDXC Memory Card with Full Size Adapter, A2, U3, Read Speed up to 100 MB/s, 128 GB, Black </t>
+  </si>
+  <si>
+    <t>Required for the raspberry pi, acts as the storage as it is a computer in itself.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/zipelo-Electronic-Flasher-Compatible-Automobile/dp/B0CDX26X34?crid=19U5965PNHK6J&amp;dib=eyJ2IjoiMSJ9.CfpQVgrw1-QKVUI5v5Iblou36ynSOYgm9rBRJUIDula6BzP4dwgRTbsVf6_AZjSIgtlBmqdhLLlPyeovh20zGQLRnjnhoPt4jYE0sgmb7EMu94ySvenAwRVohfuvlFJQvnic_nvnDLfvQFYuo4ciMOQxC8EO0iNN06GLl1JoUNXLO6_FoVxB7zFr_IkjbOBjJvJUKD8gaWh1g_qZwsJ4RaGfcRtXCaPMbWkl8LQR4V3Z5U0H32TkB9Apsa_x6FkTwV43M-6yYMIbOQd9haMJAdgDbS3IyKoqnzDmww37ywA.GgJd7oTkwwK8mTt91fc5jWEI5OAv4cfoAaDn_n8dffI&amp;dib_tag=se&amp;keywords=12+volt+electronic+flasher&amp;qid=1730329196&amp;s=automotive&amp;sprefix=12+volt+electronic+flasher%2Cautomotive%2C195&amp;sr=1-10</t>
+  </si>
+  <si>
+    <t>zipelo 2 Pin Electronic Flasher Relay, 2 Pcs 12V Car LED Turn Signal Flasher Relay, Prong Round, Fix Turn Signal Bulbs Fast Hyper Flash, Compatible with Automobile Motorcycle Bike Scooter</t>
+  </si>
+  <si>
+    <t>To be added to the demo car in order to create simulated hazard lights. This will trigger the sensor in our demo.</t>
   </si>
 </sst>
 </file>
@@ -803,28 +821,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1178,13 +1196,13 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="53" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="38"/>
@@ -1197,11 +1215,11 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="39"/>
@@ -1210,26 +1228,26 @@
       <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="49"/>
-      <c r="D5" s="54" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="49"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="43"/>
-      <c r="E6" s="52"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="49"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="43"/>
-      <c r="E7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="50"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="47"/>
-      <c r="E8" s="53"/>
+      <c r="E8" s="55"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -1248,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,10 +1331,10 @@
       <c r="E2" s="14">
         <v>2</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="49">
         <v>127.95</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="49">
         <v>12.19</v>
       </c>
       <c r="H2" s="25">
@@ -1346,10 +1364,10 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="49">
         <v>55</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="49">
         <v>5.72</v>
       </c>
       <c r="H3" s="25">
@@ -1361,7 +1379,7 @@
       </c>
       <c r="K3" s="27">
         <f>SUM(H2:H21)</f>
-        <v>458.80000000000007</v>
+        <v>475.88000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1380,10 +1398,10 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="49">
         <v>129.99</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="49">
         <v>0</v>
       </c>
       <c r="H4" s="25">
@@ -1391,34 +1409,58 @@
         <v>129.99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <v>11.99</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
       <c r="H5" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21">
+        <v>5.09</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
       <c r="H6" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
